--- a/Infrastructure.xlsx
+++ b/Infrastructure.xlsx
@@ -150,7 +150,7 @@
     <t>Update code khởi tạo logging vào Global.asax.cs.</t>
   </si>
   <si>
-    <t>Update Web.config (AddLogFilePath).</t>
+    <t>Update Web.config (LogFilePath).</t>
   </si>
 </sst>
 </file>
@@ -172,7 +172,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -182,12 +182,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -204,14 +198,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,8 +506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -746,10 +739,10 @@
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
     </row>
     <row r="40" spans="1:4">
       <c r="B40" t="s">
